--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1868101.126265543</v>
+        <v>-1870737.495919017</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>278.0818333067239</v>
+        <v>70.71145232221694</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>228.8978922864777</v>
       </c>
       <c r="X4" t="n">
-        <v>213.7926860278804</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>134.3997656343229</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>7.86672929949736</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>123.4103545945733</v>
+        <v>81.14319738660204</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>183.5103896297359</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>361.1184520354001</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>64.09441236989736</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>143.8804931210841</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>125.2851635392055</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>258.3665043780525</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>92.20984583428664</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>1.043911798777185</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1898,13 +1898,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.15381658332819</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>163.3542162903876</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>82.73433514019965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>27.77749086859501</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>221.2030256723189</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545302</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,7 +3481,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
         <v>262.2383508445512</v>
@@ -3490,7 +3490,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1059.365742829028</v>
+        <v>784.9973385935641</v>
       </c>
       <c r="C2" t="n">
-        <v>690.4032258886161</v>
+        <v>784.9973385935641</v>
       </c>
       <c r="D2" t="n">
-        <v>332.1375272818656</v>
+        <v>426.7316399868136</v>
       </c>
       <c r="E2" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X2" t="n">
-        <v>1836.104914868961</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="Y2" t="n">
-        <v>1445.96558289315</v>
+        <v>1171.597178657686</v>
       </c>
     </row>
     <row r="3">
@@ -4401,16 +4401,16 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>143.6627691908472</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L3" t="n">
         <v>884.9085321458217</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1399.844418074568</v>
+        <v>1440.755305219787</v>
       </c>
       <c r="C4" t="n">
-        <v>1230.908235146661</v>
+        <v>1440.755305219787</v>
       </c>
       <c r="D4" t="n">
-        <v>1230.908235146661</v>
+        <v>1440.755305219787</v>
       </c>
       <c r="E4" t="n">
-        <v>1082.995141564268</v>
+        <v>1440.755305219787</v>
       </c>
       <c r="F4" t="n">
-        <v>1082.995141564268</v>
+        <v>1293.865357721877</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564268</v>
+        <v>1125.878893030155</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="I4" t="n">
         <v>977.1399948936614</v>
@@ -4513,25 +4513,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>2142.732099754752</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>1853.61376225859</v>
       </c>
       <c r="V4" t="n">
-        <v>2307.654840194269</v>
+        <v>1853.61376225859</v>
       </c>
       <c r="W4" t="n">
-        <v>2018.237670157308</v>
+        <v>1622.403770050027</v>
       </c>
       <c r="X4" t="n">
-        <v>1802.285462048338</v>
+        <v>1622.403770050027</v>
       </c>
       <c r="Y4" t="n">
-        <v>1581.492882904808</v>
+        <v>1622.403770050027</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3317.659630397558</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3064.129153671394</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2733.066266327824</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2733.066266327824</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522581</v>
+        <v>2359.600508066744</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.34427854677</v>
+        <v>1969.461176090932</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158132</v>
@@ -4656,34 +4656,34 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>697.9541770656748</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="C7" t="n">
-        <v>529.0179941377679</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4726,16 +4726,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T7" t="n">
-        <v>1712.807167013118</v>
+        <v>1653.645838272287</v>
       </c>
       <c r="U7" t="n">
-        <v>1423.704300138762</v>
+        <v>1364.542971397931</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.019811932875</v>
+        <v>1364.542971397931</v>
       </c>
       <c r="W7" t="n">
-        <v>879.6026418959145</v>
+        <v>1075.12580136097</v>
       </c>
       <c r="X7" t="n">
-        <v>879.6026418959145</v>
+        <v>847.1362504629527</v>
       </c>
       <c r="Y7" t="n">
-        <v>879.6026418959145</v>
+        <v>626.3436713194226</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2161.568951662579</v>
+        <v>1626.299101484277</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1257.336584543865</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1257.336584543865</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923659</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.568951662579</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y8" t="n">
-        <v>2161.568951662579</v>
+        <v>2012.898941548399</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.9108438165264</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1581.036375996183</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1581.036375996183</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.351887790296</v>
+        <v>989.574892932578</v>
       </c>
       <c r="W10" t="n">
-        <v>1326.351887790296</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="X10" t="n">
-        <v>1326.351887790296</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="Y10" t="n">
-        <v>1105.559308646766</v>
+        <v>700.1577228956174</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5030,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.3099000622261</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3737171343192</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>597.2570777219835</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>449.3439841395904</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>302.45403664168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.872235754091</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408906</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2445.908627217859</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.053792872764</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2043.452327895704</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1754.377101239902</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1499.692613034015</v>
       </c>
       <c r="W16" t="n">
-        <v>1653.302830625878</v>
+        <v>1210.275442997055</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.313279727861</v>
+        <v>982.2858920990373</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.520700584331</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5549,7 +5549,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5589,19 +5589,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
         <v>1344.266747951538</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.8388927589092</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>134.3760737382024</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>979.2799367326791</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>758.4873575891489</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,19 +5832,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>552.8412329032296</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2418.905011995821</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2236.050177650725</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2016.448712673667</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1727.373486017864</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1472.688997811978</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1183.271827775017</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X25" t="n">
-        <v>955.2822768769995</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.4896977334694</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6680,40 +6680,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6886,19 +6886,19 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,10 +7096,10 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319329</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547835</v>
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,7 +7567,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380725</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7849,7 +7849,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>30.3692565058948</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103.8485367655379</v>
+        <v>254.5231237139751</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,10 +22562,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>22.79546638181498</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22765,10 +22765,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>57.62510605011332</v>
       </c>
       <c r="X4" t="n">
-        <v>11.91696936115673</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>40.23897475306335</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>28.15649395853848</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>75.03697526434119</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>65.3313349113445</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>100.1408962628957</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>142.9753202488375</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.59775584152668</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>65.31997266427211</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.704326028209812e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81152.27790359154</v>
+        <v>81152.27790359157</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26335,7 +26335,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330356</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330356</v>
@@ -26344,16 +26344,16 @@
         <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="N2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="O2" t="n">
         <v>102630.2212330354</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>102630.2212330354</v>
-      </c>
-      <c r="O2" t="n">
-        <v>102630.2212330355</v>
-      </c>
-      <c r="P2" t="n">
-        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121062</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363173</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>39859.18718029543</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312014</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312015</v>
@@ -26430,28 +26430,28 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768938</v>
+        <v>9947.144321768908</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768916</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="J4" t="n">
         <v>17938.00358486237</v>
       </c>
       <c r="K4" t="n">
+        <v>17938.00358486236</v>
+      </c>
+      <c r="L4" t="n">
+        <v>17938.00358486238</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17938.0035848624</v>
+      </c>
+      <c r="N4" t="n">
         <v>17938.00358486239</v>
-      </c>
-      <c r="L4" t="n">
-        <v>17938.00358486237</v>
-      </c>
-      <c r="M4" t="n">
-        <v>17938.00358486237</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17938.00358486238</v>
       </c>
       <c r="O4" t="n">
         <v>17938.00358486238</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1166396.465292468</v>
+        <v>-1166826.024159057</v>
       </c>
       <c r="C6" t="n">
-        <v>-297876.6400335841</v>
+        <v>-297876.6400335842</v>
       </c>
       <c r="D6" t="n">
-        <v>-94437.89842147804</v>
+        <v>-94437.89842147805</v>
       </c>
       <c r="E6" t="n">
-        <v>-335588.8109917803</v>
+        <v>-335623.548917216</v>
       </c>
       <c r="F6" t="n">
-        <v>-10176.34918442524</v>
+        <v>-10211.08710986092</v>
       </c>
       <c r="G6" t="n">
-        <v>-10176.3491844253</v>
+        <v>-10211.08710986098</v>
       </c>
       <c r="H6" t="n">
-        <v>-10176.34918442524</v>
+        <v>-10211.08710986094</v>
       </c>
       <c r="I6" t="n">
-        <v>-10176.34918442523</v>
+        <v>-10211.08710986096</v>
       </c>
       <c r="J6" t="n">
-        <v>-205504.7940093566</v>
+        <v>-205504.7940093565</v>
       </c>
       <c r="K6" t="n">
-        <v>-67581.99091179669</v>
+        <v>-67581.99091179663</v>
       </c>
       <c r="L6" t="n">
         <v>-18471.8982057423</v>
       </c>
       <c r="M6" t="n">
-        <v>-103526.9261412541</v>
+        <v>-103526.9261412542</v>
       </c>
       <c r="N6" t="n">
-        <v>-18471.89820574234</v>
+        <v>-18471.89820574233</v>
       </c>
       <c r="O6" t="n">
-        <v>-37899.61619937408</v>
+        <v>-37899.61619937411</v>
       </c>
       <c r="P6" t="n">
-        <v>-18471.89820574231</v>
+        <v>-18471.89820574236</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>56.6957940360698</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>42.91444629065551</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>248.3340760291576</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>196.0512408401228</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>96.13859468159593</v>
+        <v>138.4057518895672</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>181.7625021412717</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>20.81191803686164</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>155.4545369062718</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>108.2571502027439</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28618,13 +28618,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30463,19 +30463,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>320.9147064709964</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,16 +32078,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>506.5665344352332</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>556.7959610899863</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,10 +32321,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>414.6448185524877</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>556.7959610899863</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32552,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,28 +32786,28 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32950,7 +32950,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175675</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>316.0872899694776</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>93.34947739681222</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>466.4238188159148</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820405</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>189.5729943876631</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>364.4325005132149</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>425.454249006653</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,10 +35969,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>272.5107846304694</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>425.454249006653</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>173.4910455250332</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
